--- a/biology/Botanique/Microtea_debilis/Microtea_debilis.xlsx
+++ b/biology/Botanique/Microtea_debilis/Microtea_debilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Microtea debilis est une espèce de plante à fleurs de la famille des Microteaceae (anciennement Phytolaccaceae)[3]. Néotropicale, on la trouve du sud de l'Amérique centrale, aux Antilles et du Nord du Brésil au Pérou. 
-On la connaît sous les noms de alentou case, entoucase, racine pistache en créole guyanais ou erva-mijona en portugais du Brésil[4]. 
-Dans les petites Antilles, on l'appelle Demoiselle, Marie-Perrine, Herbe long-case ou Maripérin, Olonkaz, Zèb olonkaz, Alonkaz, Alantoukaz, Antoukaz, Alatoukay, Dimwézèl lo en créole[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Microtea debilis est une espèce de plante à fleurs de la famille des Microteaceae (anciennement Phytolaccaceae). Néotropicale, on la trouve du sud de l'Amérique centrale, aux Antilles et du Nord du Brésil au Pérou. 
+On la connaît sous les noms de alentou case, entoucase, racine pistache en créole guyanais ou erva-mijona en portugais du Brésil. 
+Dans les petites Antilles, on l'appelle Demoiselle, Marie-Perrine, Herbe long-case ou Maripérin, Olonkaz, Zèb olonkaz, Alonkaz, Alantoukaz, Antoukaz, Alatoukay, Dimwézèl lo en créole.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Microtea debilis est une petite herbacée annuelle rudérale rampante mesurant moins de 50 cm, à inflorescence en cyme blanche discrète, et se reproduisant par graines.
-Adventice des cultures, elle apprécie les sols meubles assez riches en matière organique[6].
+Adventice des cultures, elle apprécie les sols meubles assez riches en matière organique.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Typique de la pharmacopée traditionnelle guyanaise, cette plante sert à confectionner une tisane réputée hypotensive, diurétique et antigrippale chez les créoles et les Aluku[4].
-Dans les Antilles françaises, elle est utilisée pour traiter les troubles urinaires, le diabète, l'hypertension et l'obésité (action « brule graisse »)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Typique de la pharmacopée traditionnelle guyanaise, cette plante sert à confectionner une tisane réputée hypotensive, diurétique et antigrippale chez les créoles et les Aluku.
+Dans les Antilles françaises, elle est utilisée pour traiter les troubles urinaires, le diabète, l'hypertension et l'obésité (action « brule graisse »).
 			Microtea debilis plante entière.
 			Microtea debilis plante entière.
 			Jeune inflorescence de Microtea debilis.
